--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3199.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3199.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8944580248879117</v>
+        <v>1.64493191242218</v>
       </c>
       <c r="B1">
-        <v>1.469200837492369</v>
+        <v>2.415802717208862</v>
       </c>
       <c r="C1">
-        <v>4.486583539465853</v>
+        <v>2.790245771408081</v>
       </c>
       <c r="D1">
-        <v>5.509512143507422</v>
+        <v>3.419345617294312</v>
       </c>
       <c r="E1">
-        <v>1.935003981347432</v>
+        <v>1.207271933555603</v>
       </c>
     </row>
   </sheetData>
